--- a/biology/Histoire de la zoologie et de la botanique/Walter_Varian_Brown/Walter_Varian_Brown.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Walter_Varian_Brown/Walter_Varian_Brown.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter Varian Brown est un botaniste américain, né le 3 avril 1913 à Leicester dans le Massachusetts et mort en 1977.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le quatrième enfant de Frederic Kenyon Brown et d’Ethelind Cartland née Knight. Son père, originaire de Grande-Bretagne est venu très jeune aux États-Unis d'Amérique pour travailler dans les plantations de coton de New Bedford dans le Massachusetts avant de devenir prêtre en Nouvelle-Angleterre. Sa mère enseigne dans une école réservée aux noirs. Ses deux parents s’adonnant à l’écriture.
 Brown étudie à Leominster avant d’entrer à la Worcester Massachusetts Academy. Il obtient son baccalauréat à l'université Brown en 1939 et son master en 1939. Le 3 juillet 1938, il se marie avec Helen B. Murray d’Hanover dans le New Hampshire. Il reçoit son doctorat à l’université Duke en 1943. Il sert deux ans dans la Navy.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Nécrologie de l’université du Texas</t>
         </is>
